--- a/examples/toy example/data/lca/unit_conversion.xlsx
+++ b/examples/toy example/data/lca/unit_conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\examples\toy example\data\lca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777D4BF6-21CD-4D87-BCAA-8240C68FBCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E4B9E3-375F-4143-84D4-80DAB3BDCA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98EEC620-80BF-4D8C-B6B6-060EA45EA15E}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>3900 GJ/kg (World Nuclear Association)</t>
   </si>
   <si>
-    <t>25000 km of lines on Tatooine (own estimations)</t>
-  </si>
-  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Nuclear fuel heat value: 3900 GJ/kg (World Nuclear Association)</t>
+  </si>
+  <si>
+    <t>Typical power size connected to the high-voltage electricity grid: P_HV = 500 MW, mean high-voltage electricity grid transportation length: l_HV = 11.5 km (Schnidrig et al., 2023)</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEFC4C7-3F00-4804-88C2-92C3F187168A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,16 +915,17 @@
         <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>25000</v>
+        <f>11.5/0.5 / 1000000</f>
+        <v>2.3E-5</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -992,10 +993,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
       </c>
       <c r="C23">
         <f>1/(9.06*0.95)</f>
@@ -1008,15 +1009,15 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <f>1 / (13.1*0.777)</f>
@@ -1029,15 +1030,15 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <f>1/(3900*1000/3.6)</f>
@@ -1050,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/examples/toy example/data/lca/unit_conversion.xlsx
+++ b/examples/toy example/data/lca/unit_conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\examples\toy example\data\lca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E4B9E3-375F-4143-84D4-80DAB3BDCA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA536C-93E2-4703-BB4D-0DEA236C8442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98EEC620-80BF-4D8C-B6B6-060EA45EA15E}"/>
   </bookViews>
@@ -125,33 +125,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>570 kWp (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>2 MW (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>1 GW (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>400 MW (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>450 MW (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>203 kg for 23.5 kWh (Dai et al., 2017, 2018)</t>
-  </si>
-  <si>
-    <t>27.91 MJ/kg (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>39 MJ/m3 (Wernet et al., 2016)</t>
-  </si>
-  <si>
-    <t>3900 GJ/kg (World Nuclear Association)</t>
-  </si>
-  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -164,16 +137,43 @@
     <t>nuclear fuel element</t>
   </si>
   <si>
-    <t>hard coal HHV: 9.06 kWh/kg (Engineering Toolbox), LHV-to-HHV ratio (0.95)</t>
-  </si>
-  <si>
-    <t>LHV natural gas: 13.1 kWh/kg, density natural gas: 0.777 kg/m3 (Engineering Toolbox)</t>
-  </si>
-  <si>
-    <t>Nuclear fuel heat value: 3900 GJ/kg (World Nuclear Association)</t>
-  </si>
-  <si>
-    <t>Typical power size connected to the high-voltage electricity grid: P_HV = 500 MW, mean high-voltage electricity grid transportation length: l_HV = 11.5 km (Schnidrig et al., 2023)</t>
+    <t>1 GW \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>570 kWp \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>2 MW \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>400 MW \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>450 MW \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>27.91 MJ/kg \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>39 MJ/m3 \cite{wernet_ecoinvent_2016}</t>
+  </si>
+  <si>
+    <t>203 kg for 23.5 kWh \cite{dai2017update}</t>
+  </si>
+  <si>
+    <t>3900 GJ/kg \cite{world_nuclear_association_heat_nodate}</t>
+  </si>
+  <si>
+    <t>Nuclear fuel heat value: 3900 GJ/kg \cite{world_nuclear_association_heat_nodate}</t>
+  </si>
+  <si>
+    <t>LHV natural gas: 13.1 kWh/kg, density natural gas: 0.777 kg/m3 \cite{engineering_toolbox_fuels_2003}</t>
+  </si>
+  <si>
+    <t>Typical power size connected to the high-voltage electricity grid: $P_{HV}$ = 500 MW, mean high-voltage electricity grid transportation length: $l_{HV}$ = 11.5 km \cite{schnidrig_role_2023}</t>
+  </si>
+  <si>
+    <t>hard coal HHV: 9.06 kWh/kg \cite{engineering_toolbox_fuels_2003}, LHV-to-HHV ratio (0.95)</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEFC4C7-3F00-4804-88C2-92C3F187168A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +621,7 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -769,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -790,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -845,7 +845,7 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -883,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -904,7 +904,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -967,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -988,17 +988,17 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
         <f>1/(9.06*0.95)</f>
         <v>0.11618450098756827</v>
       </c>
@@ -1009,17 +1009,17 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
         <f>1 / (13.1*0.777)</f>
         <v>9.8244373053533368E-2</v>
       </c>
@@ -1035,12 +1035,12 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
         <f>1/(3900*1000/3.6)</f>
         <v>9.2307692307692312E-7</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/examples/toy example/data/lca/unit_conversion.xlsx
+++ b/examples/toy example/data/lca/unit_conversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\mescal\examples\toy example\data\lca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA536C-93E2-4703-BB4D-0DEA236C8442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CC10A-F80C-46E8-84D6-6005ED05DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98EEC620-80BF-4D8C-B6B6-060EA45EA15E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>hard coal HHV: 9.06 kWh/kg \cite{engineering_toolbox_fuels_2003}, LHV-to-HHV ratio (0.95)</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>ELECTRICITY</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEFC4C7-3F00-4804-88C2-92C3F187168A}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,6 +1060,86 @@
         <v>42</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1">
+        <f>1 * 3.6 / 27.91</f>
+        <v>0.12898602651379434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1">
+        <f>1 * 3.6 / 39</f>
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <f>1 * 3.6 / (3900000)</f>
+        <v>9.2307692307692312E-7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
